--- a/dataset/order_dataset.xlsx
+++ b/dataset/order_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kay/Documents/Kay Eugenia Purnama/1. NUS/Y2S1/PSA/PSA_CodeSprint/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE74FA-1D8C-E94C-A40A-E18854723B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F6A43-9DC0-6941-B5C4-3BAA3C7C026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$163</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="16">
   <si>
     <t>Order ID</t>
   </si>
@@ -43,10 +43,34 @@
     <t>Singapore</t>
   </si>
   <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
     <t>Manila</t>
   </si>
   <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
     <t>New York</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
@@ -414,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -447,7 +471,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -456,31 +480,2751 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45241.911899539038</v>
+        <v>45230.911899538922</v>
       </c>
       <c r="E2">
-        <v>274</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45241.911899539038</v>
+      </c>
+      <c r="E3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45228.91189953906</v>
+      </c>
+      <c r="E4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45243.911899539067</v>
+      </c>
+      <c r="E5">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45234.911899539104</v>
+      </c>
+      <c r="E6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45232.911899539111</v>
+      </c>
+      <c r="E7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45245.911899539118</v>
+      </c>
+      <c r="E8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45238.91189953914</v>
+      </c>
+      <c r="E9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45255.911899539176</v>
+      </c>
+      <c r="E10">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45258.911899539191</v>
+      </c>
+      <c r="E11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45245.911899539213</v>
+      </c>
+      <c r="E12">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45252.911899539227</v>
+      </c>
+      <c r="E13">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45249.911899539227</v>
+      </c>
+      <c r="E14">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45253.911899539293</v>
+      </c>
+      <c r="E15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45252.911899539307</v>
+      </c>
+      <c r="E16">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45254.911899539307</v>
+      </c>
+      <c r="E17">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45230.911899539329</v>
+      </c>
+      <c r="E18">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45237.911899539351</v>
+      </c>
+      <c r="E19">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45237.911899539373</v>
+      </c>
+      <c r="E20">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45258.911899539373</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45244.911899539387</v>
+      </c>
+      <c r="E22">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45254.911899539387</v>
+      </c>
+      <c r="E23">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45237.911899539416</v>
+      </c>
+      <c r="E24">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45236.911899539431</v>
+      </c>
+      <c r="E25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45241.911899539453</v>
+      </c>
+      <c r="E26">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45244.911899539453</v>
+      </c>
+      <c r="E27">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45252.911899539467</v>
+      </c>
+      <c r="E28">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45258.911899539489</v>
+      </c>
+      <c r="E29">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45251.911899539497</v>
+      </c>
+      <c r="E30">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45231.911899539511</v>
+      </c>
+      <c r="E31">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45233.911899539533</v>
+      </c>
+      <c r="E32">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45254.911899539547</v>
+      </c>
+      <c r="E33">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45240.911899539562</v>
+      </c>
+      <c r="E34">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45234.911899539569</v>
+      </c>
+      <c r="E35">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45230.911899539577</v>
+      </c>
+      <c r="E36">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45256.911899539613</v>
+      </c>
+      <c r="E37">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45231.91189953962</v>
+      </c>
+      <c r="E38">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45242.911899539627</v>
+      </c>
+      <c r="E39">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45244.911899539642</v>
+      </c>
+      <c r="E40">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45240.911899539649</v>
+      </c>
+      <c r="E41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45240.911899539678</v>
+      </c>
+      <c r="E42">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45233.911899539693</v>
+      </c>
+      <c r="E43">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45237.9118995397</v>
+      </c>
+      <c r="E44">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45239.911899539708</v>
+      </c>
+      <c r="E45">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45253.911899539737</v>
+      </c>
+      <c r="E46">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45258.911899539737</v>
+      </c>
+      <c r="E47">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45248.911899539758</v>
+      </c>
+      <c r="E48">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45243.911899539773</v>
+      </c>
+      <c r="E49">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45242.91189953978</v>
+      </c>
+      <c r="E50">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45258.911899539788</v>
+      </c>
+      <c r="E51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45258.911899539817</v>
+      </c>
+      <c r="E52">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45246.911899539817</v>
+      </c>
+      <c r="E53">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45245.911899539838</v>
+      </c>
+      <c r="E54">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45244.911899539853</v>
+      </c>
+      <c r="E55">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45246.91189953986</v>
+      </c>
+      <c r="E56">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45255.911899539882</v>
+      </c>
+      <c r="E57">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45238.911899539897</v>
+      </c>
+      <c r="E58">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45255.911899539897</v>
+      </c>
+      <c r="E59">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45236.911899539919</v>
+      </c>
+      <c r="E60">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45238.911899539933</v>
+      </c>
+      <c r="E61">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45234.91189953994</v>
+      </c>
+      <c r="E62">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45252.911899539962</v>
+      </c>
+      <c r="E63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45253.911899539977</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45250.911899539991</v>
+      </c>
+      <c r="E65">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45248.911899539999</v>
+      </c>
+      <c r="E66">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45249.91189954002</v>
+      </c>
+      <c r="E67">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45253.911899540028</v>
+      </c>
+      <c r="E68">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45228.911899540049</v>
+      </c>
+      <c r="E69">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45249.911899540057</v>
+      </c>
+      <c r="E70">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45242.911899540071</v>
+      </c>
+      <c r="E71">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45251.911899540093</v>
+      </c>
+      <c r="E72">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45255.911899540108</v>
+      </c>
+      <c r="E73">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45246.911899540108</v>
+      </c>
+      <c r="E74">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45233.91189954013</v>
+      </c>
+      <c r="E75">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45233.911899540137</v>
+      </c>
+      <c r="E76">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45235.911899540151</v>
+      </c>
+      <c r="E77">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45230.911899540173</v>
+      </c>
+      <c r="E78">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45249.911899540188</v>
+      </c>
+      <c r="E79">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45236.911899540202</v>
+      </c>
+      <c r="E80">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45232.911899540217</v>
+      </c>
+      <c r="E81">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45254.911899540231</v>
+      </c>
+      <c r="E82">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45238.911899540253</v>
+      </c>
+      <c r="E83">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45247.911899540253</v>
+      </c>
+      <c r="E84">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45240.911899540268</v>
+      </c>
+      <c r="E85">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45246.911899540282</v>
+      </c>
+      <c r="E86">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45235.91189954029</v>
+      </c>
+      <c r="E87">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45247.911899540311</v>
+      </c>
+      <c r="E88">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45242.911899540333</v>
+      </c>
+      <c r="E89">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45252.911899540333</v>
+      </c>
+      <c r="E90">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45238.911899540348</v>
+      </c>
+      <c r="E91">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45234.911899540362</v>
+      </c>
+      <c r="E92">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45249.91189954037</v>
+      </c>
+      <c r="E93">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45256.911899540377</v>
+      </c>
+      <c r="E94">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45250.911899540413</v>
+      </c>
+      <c r="E95">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45232.911899540413</v>
+      </c>
+      <c r="E96">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45255.911899540428</v>
+      </c>
+      <c r="E97">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45234.911899540442</v>
+      </c>
+      <c r="E98">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45235.91189954045</v>
+      </c>
+      <c r="E99">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45258.911899540471</v>
+      </c>
+      <c r="E100">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45246.911899540493</v>
+      </c>
+      <c r="E101">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45241.9057716725</v>
+      </c>
+      <c r="E102">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45258.905771672522</v>
+      </c>
+      <c r="E103">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45244.905771672573</v>
+      </c>
+      <c r="E104">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45242.90577167258</v>
+      </c>
+      <c r="E105">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45245.905771672602</v>
+      </c>
+      <c r="E106">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45230.905771672617</v>
+      </c>
+      <c r="E107">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45250.905771672653</v>
+      </c>
+      <c r="E108">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45242.90577167266</v>
+      </c>
+      <c r="E109">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45245.905771672697</v>
+      </c>
+      <c r="E110">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45256.905771672711</v>
+      </c>
+      <c r="E111">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45251.905771672718</v>
+      </c>
+      <c r="E112">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45233.905771672733</v>
+      </c>
+      <c r="E113">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45232.90577167274</v>
+      </c>
+      <c r="E114">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45247.905771672748</v>
+      </c>
+      <c r="E115">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45251.905771672798</v>
+      </c>
+      <c r="E116">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45237.905771672828</v>
+      </c>
+      <c r="E117">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45237.905771672828</v>
+      </c>
+      <c r="E118">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45231.905771672849</v>
+      </c>
+      <c r="E119">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45253.905771672857</v>
+      </c>
+      <c r="E120">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45248.905771672893</v>
+      </c>
+      <c r="E121">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45247.905771672908</v>
+      </c>
+      <c r="E122">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45249.905771672929</v>
+      </c>
+      <c r="E123">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45239.905771672951</v>
+      </c>
+      <c r="E124">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45245.905771672973</v>
+      </c>
+      <c r="E125">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45254.905771672988</v>
+      </c>
+      <c r="E126">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45253.905771672988</v>
+      </c>
+      <c r="E127">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45249.905771673009</v>
+      </c>
+      <c r="E128">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45257.905771673097</v>
+      </c>
+      <c r="E129">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45255.905771673133</v>
+      </c>
+      <c r="E130">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45254.90577167317</v>
+      </c>
+      <c r="E131">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45255.905771673177</v>
+      </c>
+      <c r="E132">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45250.905771673213</v>
+      </c>
+      <c r="E133">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45251.90577167322</v>
+      </c>
+      <c r="E134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45239.905771673228</v>
+      </c>
+      <c r="E135">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45239.90577167325</v>
+      </c>
+      <c r="E136">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45250.905771673257</v>
+      </c>
+      <c r="E137">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45248.905771673308</v>
+      </c>
+      <c r="E138">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45234.905771673322</v>
+      </c>
+      <c r="E139">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45229.905771673381</v>
+      </c>
+      <c r="E140">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45228.905771673388</v>
+      </c>
+      <c r="E141">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45231.905771673417</v>
+      </c>
+      <c r="E142">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45229.905771673453</v>
+      </c>
+      <c r="E143">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45228.905771673482</v>
+      </c>
+      <c r="E144">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45252.905771673482</v>
+      </c>
+      <c r="E145">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45255.905771673497</v>
+      </c>
+      <c r="E146">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45258.905771673533</v>
+      </c>
+      <c r="E147">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45249.905771673562</v>
+      </c>
+      <c r="E148">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45240.905771673562</v>
+      </c>
+      <c r="E149">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45233.905771673621</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45256.905771673672</v>
+      </c>
+      <c r="E151">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45245.905771673679</v>
+      </c>
+      <c r="E152">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45241.905771673693</v>
+      </c>
+      <c r="E153">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45245.90577167373</v>
+      </c>
+      <c r="E154">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45242.905771673737</v>
+      </c>
+      <c r="E155">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45231.905771673759</v>
+      </c>
+      <c r="E156">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45245.905771673773</v>
+      </c>
+      <c r="E157">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45256.905771673788</v>
+      </c>
+      <c r="E158">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45231.905771673853</v>
+      </c>
+      <c r="E159">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45244.905771673883</v>
+      </c>
+      <c r="E160">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45252.90577167389</v>
+      </c>
+      <c r="E161">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45246.905771673897</v>
+      </c>
+      <c r="E162">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="2">
         <v>45251.905771673948</v>
       </c>
-      <c r="E3">
+      <c r="E163">
         <v>398</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dataset/order_dataset.xlsx
+++ b/dataset/order_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kay/Documents/Kay Eugenia Purnama/1. NUS/Y2S1/PSA/PSA_CodeSprint/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiji\VSCodeProjects\PSA_CodeSprint\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F6A43-9DC0-6941-B5C4-3BAA3C7C026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D19BEA-AB6B-49F3-98A4-06887C804CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2350" yWindow="1140" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$163</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -440,19 +440,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="6" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,10 +483,10 @@
         <v>45230.911899538922</v>
       </c>
       <c r="E2">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,10 +500,10 @@
         <v>45241.911899539038</v>
       </c>
       <c r="E3">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -517,10 +517,10 @@
         <v>45228.91189953906</v>
       </c>
       <c r="E4">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -534,10 +534,10 @@
         <v>45243.911899539067</v>
       </c>
       <c r="E5">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,10 +551,10 @@
         <v>45234.911899539104</v>
       </c>
       <c r="E6">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -568,10 +568,10 @@
         <v>45232.911899539111</v>
       </c>
       <c r="E7">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -585,10 +585,10 @@
         <v>45245.911899539118</v>
       </c>
       <c r="E8">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -602,10 +602,10 @@
         <v>45238.91189953914</v>
       </c>
       <c r="E9">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,10 +619,10 @@
         <v>45255.911899539176</v>
       </c>
       <c r="E10">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -636,10 +636,10 @@
         <v>45258.911899539191</v>
       </c>
       <c r="E11">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -653,10 +653,10 @@
         <v>45245.911899539213</v>
       </c>
       <c r="E12">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -670,10 +670,10 @@
         <v>45252.911899539227</v>
       </c>
       <c r="E13">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -687,10 +687,10 @@
         <v>45249.911899539227</v>
       </c>
       <c r="E14">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -704,10 +704,10 @@
         <v>45253.911899539293</v>
       </c>
       <c r="E15">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -721,10 +721,10 @@
         <v>45252.911899539307</v>
       </c>
       <c r="E16">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -738,10 +738,10 @@
         <v>45254.911899539307</v>
       </c>
       <c r="E17">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -755,10 +755,10 @@
         <v>45230.911899539329</v>
       </c>
       <c r="E18">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -772,10 +772,10 @@
         <v>45237.911899539351</v>
       </c>
       <c r="E19">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -789,10 +789,10 @@
         <v>45237.911899539373</v>
       </c>
       <c r="E20">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -806,10 +806,10 @@
         <v>45258.911899539373</v>
       </c>
       <c r="E21">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -823,10 +823,10 @@
         <v>45244.911899539387</v>
       </c>
       <c r="E22">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -840,10 +840,10 @@
         <v>45254.911899539387</v>
       </c>
       <c r="E23">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -857,10 +857,10 @@
         <v>45237.911899539416</v>
       </c>
       <c r="E24">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -874,10 +874,10 @@
         <v>45236.911899539431</v>
       </c>
       <c r="E25">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -891,10 +891,10 @@
         <v>45241.911899539453</v>
       </c>
       <c r="E26">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -908,10 +908,10 @@
         <v>45244.911899539453</v>
       </c>
       <c r="E27">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -925,10 +925,10 @@
         <v>45252.911899539467</v>
       </c>
       <c r="E28">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -942,10 +942,10 @@
         <v>45258.911899539489</v>
       </c>
       <c r="E29">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -959,10 +959,10 @@
         <v>45251.911899539497</v>
       </c>
       <c r="E30">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -976,10 +976,10 @@
         <v>45231.911899539511</v>
       </c>
       <c r="E31">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -993,10 +993,10 @@
         <v>45233.911899539533</v>
       </c>
       <c r="E32">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1010,10 +1010,10 @@
         <v>45254.911899539547</v>
       </c>
       <c r="E33">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1027,10 +1027,10 @@
         <v>45240.911899539562</v>
       </c>
       <c r="E34">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1044,10 +1044,10 @@
         <v>45234.911899539569</v>
       </c>
       <c r="E35">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1061,10 +1061,10 @@
         <v>45230.911899539577</v>
       </c>
       <c r="E36">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1078,10 +1078,10 @@
         <v>45256.911899539613</v>
       </c>
       <c r="E37">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1095,10 +1095,10 @@
         <v>45231.91189953962</v>
       </c>
       <c r="E38">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1112,10 +1112,10 @@
         <v>45242.911899539627</v>
       </c>
       <c r="E39">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1129,10 +1129,10 @@
         <v>45244.911899539642</v>
       </c>
       <c r="E40">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1146,10 +1146,10 @@
         <v>45240.911899539649</v>
       </c>
       <c r="E41">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1163,10 +1163,10 @@
         <v>45240.911899539678</v>
       </c>
       <c r="E42">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1180,10 +1180,10 @@
         <v>45233.911899539693</v>
       </c>
       <c r="E43">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1197,10 +1197,10 @@
         <v>45237.9118995397</v>
       </c>
       <c r="E44">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1214,10 +1214,10 @@
         <v>45239.911899539708</v>
       </c>
       <c r="E45">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1231,10 +1231,10 @@
         <v>45253.911899539737</v>
       </c>
       <c r="E46">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>45258.911899539737</v>
       </c>
       <c r="E47">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1265,10 +1265,10 @@
         <v>45248.911899539758</v>
       </c>
       <c r="E48">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1282,10 +1282,10 @@
         <v>45243.911899539773</v>
       </c>
       <c r="E49">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1299,10 +1299,10 @@
         <v>45242.91189953978</v>
       </c>
       <c r="E50">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12740</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1316,10 +1316,10 @@
         <v>45258.911899539788</v>
       </c>
       <c r="E51">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1333,10 +1333,10 @@
         <v>45258.911899539817</v>
       </c>
       <c r="E52">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1350,10 +1350,10 @@
         <v>45246.911899539817</v>
       </c>
       <c r="E53">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1367,10 +1367,10 @@
         <v>45245.911899539838</v>
       </c>
       <c r="E54">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18920</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1384,10 +1384,10 @@
         <v>45244.911899539853</v>
       </c>
       <c r="E55">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1401,10 +1401,10 @@
         <v>45246.91189953986</v>
       </c>
       <c r="E56">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1418,10 +1418,10 @@
         <v>45255.911899539882</v>
       </c>
       <c r="E57">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>45238.911899539897</v>
       </c>
       <c r="E58">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1452,10 +1452,10 @@
         <v>45255.911899539897</v>
       </c>
       <c r="E59">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1469,10 +1469,10 @@
         <v>45236.911899539919</v>
       </c>
       <c r="E60">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14060</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1486,10 +1486,10 @@
         <v>45238.911899539933</v>
       </c>
       <c r="E61">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15080</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1503,10 +1503,10 @@
         <v>45234.91189953994</v>
       </c>
       <c r="E62">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1520,10 +1520,10 @@
         <v>45252.911899539962</v>
       </c>
       <c r="E63">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1537,10 +1537,10 @@
         <v>45253.911899539977</v>
       </c>
       <c r="E64">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1554,10 +1554,10 @@
         <v>45250.911899539991</v>
       </c>
       <c r="E65">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1571,10 +1571,10 @@
         <v>45248.911899539999</v>
       </c>
       <c r="E66">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1588,10 +1588,10 @@
         <v>45249.91189954002</v>
       </c>
       <c r="E67">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1605,10 +1605,10 @@
         <v>45253.911899540028</v>
       </c>
       <c r="E68">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1622,10 +1622,10 @@
         <v>45228.911899540049</v>
       </c>
       <c r="E69">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1639,10 +1639,10 @@
         <v>45249.911899540057</v>
       </c>
       <c r="E70">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1656,10 +1656,10 @@
         <v>45242.911899540071</v>
       </c>
       <c r="E71">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1673,10 +1673,10 @@
         <v>45251.911899540093</v>
       </c>
       <c r="E72">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1690,10 +1690,10 @@
         <v>45255.911899540108</v>
       </c>
       <c r="E73">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1707,10 +1707,10 @@
         <v>45246.911899540108</v>
       </c>
       <c r="E74">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1724,10 +1724,10 @@
         <v>45233.91189954013</v>
       </c>
       <c r="E75">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1741,10 +1741,10 @@
         <v>45233.911899540137</v>
       </c>
       <c r="E76">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1758,10 +1758,10 @@
         <v>45235.911899540151</v>
       </c>
       <c r="E77">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1775,10 +1775,10 @@
         <v>45230.911899540173</v>
       </c>
       <c r="E78">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1792,10 +1792,10 @@
         <v>45249.911899540188</v>
       </c>
       <c r="E79">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1809,10 +1809,10 @@
         <v>45236.911899540202</v>
       </c>
       <c r="E80">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17060</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1826,10 +1826,10 @@
         <v>45232.911899540217</v>
       </c>
       <c r="E81">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1843,10 +1843,10 @@
         <v>45254.911899540231</v>
       </c>
       <c r="E82">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15780</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1860,10 +1860,10 @@
         <v>45238.911899540253</v>
       </c>
       <c r="E83">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1877,10 +1877,10 @@
         <v>45247.911899540253</v>
       </c>
       <c r="E84">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1894,10 +1894,10 @@
         <v>45240.911899540268</v>
       </c>
       <c r="E85">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1911,10 +1911,10 @@
         <v>45246.911899540282</v>
       </c>
       <c r="E86">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1928,10 +1928,10 @@
         <v>45235.91189954029</v>
       </c>
       <c r="E87">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1945,10 +1945,10 @@
         <v>45247.911899540311</v>
       </c>
       <c r="E88">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1962,10 +1962,10 @@
         <v>45242.911899540333</v>
       </c>
       <c r="E89">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1979,10 +1979,10 @@
         <v>45252.911899540333</v>
       </c>
       <c r="E90">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1996,10 +1996,10 @@
         <v>45238.911899540348</v>
       </c>
       <c r="E91">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2013,10 +2013,10 @@
         <v>45234.911899540362</v>
       </c>
       <c r="E92">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2030,10 +2030,10 @@
         <v>45249.91189954037</v>
       </c>
       <c r="E93">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2047,10 +2047,10 @@
         <v>45256.911899540377</v>
       </c>
       <c r="E94">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2064,10 +2064,10 @@
         <v>45250.911899540413</v>
       </c>
       <c r="E95">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2081,10 +2081,10 @@
         <v>45232.911899540413</v>
       </c>
       <c r="E96">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2098,10 +2098,10 @@
         <v>45255.911899540428</v>
       </c>
       <c r="E97">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2115,10 +2115,10 @@
         <v>45234.911899540442</v>
       </c>
       <c r="E98">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18460</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2132,10 +2132,10 @@
         <v>45235.91189954045</v>
       </c>
       <c r="E99">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2149,10 +2149,10 @@
         <v>45258.911899540471</v>
       </c>
       <c r="E100">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2166,10 +2166,10 @@
         <v>45246.911899540493</v>
       </c>
       <c r="E101">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2183,10 +2183,10 @@
         <v>45241.9057716725</v>
       </c>
       <c r="E102">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2200,10 +2200,10 @@
         <v>45258.905771672522</v>
       </c>
       <c r="E103">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2217,10 +2217,10 @@
         <v>45244.905771672573</v>
       </c>
       <c r="E104">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2234,10 +2234,10 @@
         <v>45242.90577167258</v>
       </c>
       <c r="E105">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2251,10 +2251,10 @@
         <v>45245.905771672602</v>
       </c>
       <c r="E106">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2268,10 +2268,10 @@
         <v>45230.905771672617</v>
       </c>
       <c r="E107">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2285,10 +2285,10 @@
         <v>45250.905771672653</v>
       </c>
       <c r="E108">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2302,10 +2302,10 @@
         <v>45242.90577167266</v>
       </c>
       <c r="E109">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2319,10 +2319,10 @@
         <v>45245.905771672697</v>
       </c>
       <c r="E110">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18080</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>45256.905771672711</v>
       </c>
       <c r="E111">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2353,10 +2353,10 @@
         <v>45251.905771672718</v>
       </c>
       <c r="E112">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2370,10 +2370,10 @@
         <v>45233.905771672733</v>
       </c>
       <c r="E113">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2387,10 +2387,10 @@
         <v>45232.90577167274</v>
       </c>
       <c r="E114">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2404,10 +2404,10 @@
         <v>45247.905771672748</v>
       </c>
       <c r="E115">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2421,10 +2421,10 @@
         <v>45251.905771672798</v>
       </c>
       <c r="E116">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2438,10 +2438,10 @@
         <v>45237.905771672828</v>
       </c>
       <c r="E117">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2455,10 +2455,10 @@
         <v>45237.905771672828</v>
       </c>
       <c r="E118">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2472,10 +2472,10 @@
         <v>45231.905771672849</v>
       </c>
       <c r="E119">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11460</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2489,10 +2489,10 @@
         <v>45253.905771672857</v>
       </c>
       <c r="E120">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2506,10 +2506,10 @@
         <v>45248.905771672893</v>
       </c>
       <c r="E121">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2523,10 +2523,10 @@
         <v>45247.905771672908</v>
       </c>
       <c r="E122">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15860</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2540,10 +2540,10 @@
         <v>45249.905771672929</v>
       </c>
       <c r="E123">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16960</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2557,10 +2557,10 @@
         <v>45239.905771672951</v>
       </c>
       <c r="E124">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2574,10 +2574,10 @@
         <v>45245.905771672973</v>
       </c>
       <c r="E125">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2591,10 +2591,10 @@
         <v>45254.905771672988</v>
       </c>
       <c r="E126">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13740</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2608,10 +2608,10 @@
         <v>45253.905771672988</v>
       </c>
       <c r="E127">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2625,10 +2625,10 @@
         <v>45249.905771673009</v>
       </c>
       <c r="E128">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15980</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2642,10 +2642,10 @@
         <v>45257.905771673097</v>
       </c>
       <c r="E129">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2659,10 +2659,10 @@
         <v>45255.905771673133</v>
       </c>
       <c r="E130">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11560</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2676,10 +2676,10 @@
         <v>45254.90577167317</v>
       </c>
       <c r="E131">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2693,10 +2693,10 @@
         <v>45255.905771673177</v>
       </c>
       <c r="E132">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2710,10 +2710,10 @@
         <v>45250.905771673213</v>
       </c>
       <c r="E133">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2727,10 +2727,10 @@
         <v>45251.90577167322</v>
       </c>
       <c r="E134">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2744,10 +2744,10 @@
         <v>45239.905771673228</v>
       </c>
       <c r="E135">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18560</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2761,10 +2761,10 @@
         <v>45239.90577167325</v>
       </c>
       <c r="E136">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10880</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2778,10 +2778,10 @@
         <v>45250.905771673257</v>
       </c>
       <c r="E137">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2795,10 +2795,10 @@
         <v>45248.905771673308</v>
       </c>
       <c r="E138">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2812,10 +2812,10 @@
         <v>45234.905771673322</v>
       </c>
       <c r="E139">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2829,10 +2829,10 @@
         <v>45229.905771673381</v>
       </c>
       <c r="E140">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2846,10 +2846,10 @@
         <v>45228.905771673388</v>
       </c>
       <c r="E141">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2863,10 +2863,10 @@
         <v>45231.905771673417</v>
       </c>
       <c r="E142">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13680</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2880,10 +2880,10 @@
         <v>45229.905771673453</v>
       </c>
       <c r="E143">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2897,10 +2897,10 @@
         <v>45228.905771673482</v>
       </c>
       <c r="E144">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2914,10 +2914,10 @@
         <v>45252.905771673482</v>
       </c>
       <c r="E145">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2931,10 +2931,10 @@
         <v>45255.905771673497</v>
       </c>
       <c r="E146">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2948,10 +2948,10 @@
         <v>45258.905771673533</v>
       </c>
       <c r="E147">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2965,10 +2965,10 @@
         <v>45249.905771673562</v>
       </c>
       <c r="E148">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2982,10 +2982,10 @@
         <v>45240.905771673562</v>
       </c>
       <c r="E149">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2999,10 +2999,10 @@
         <v>45233.905771673621</v>
       </c>
       <c r="E150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3016,10 +3016,10 @@
         <v>45256.905771673672</v>
       </c>
       <c r="E151">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3033,10 +3033,10 @@
         <v>45245.905771673679</v>
       </c>
       <c r="E152">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3050,10 +3050,10 @@
         <v>45241.905771673693</v>
       </c>
       <c r="E153">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3067,10 +3067,10 @@
         <v>45245.90577167373</v>
       </c>
       <c r="E154">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3084,10 +3084,10 @@
         <v>45242.905771673737</v>
       </c>
       <c r="E155">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3101,10 +3101,10 @@
         <v>45231.905771673759</v>
       </c>
       <c r="E156">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3118,10 +3118,10 @@
         <v>45245.905771673773</v>
       </c>
       <c r="E157">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3135,10 +3135,10 @@
         <v>45256.905771673788</v>
       </c>
       <c r="E158">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3152,10 +3152,10 @@
         <v>45231.905771673853</v>
       </c>
       <c r="E159">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16540</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3169,10 +3169,10 @@
         <v>45244.905771673883</v>
       </c>
       <c r="E160">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3186,10 +3186,10 @@
         <v>45252.90577167389</v>
       </c>
       <c r="E161">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3203,10 +3203,10 @@
         <v>45246.905771673897</v>
       </c>
       <c r="E162">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>45251.905771673948</v>
       </c>
       <c r="E163">
-        <v>398</v>
+        <v>7960</v>
       </c>
     </row>
   </sheetData>
